--- a/prcpp-week06/graphs/TestStripeMap626.xlsx
+++ b/prcpp-week06/graphs/TestStripeMap626.xlsx
@@ -1068,11 +1068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2119976752"/>
-        <c:axId val="-2121301072"/>
+        <c:axId val="-2139380624"/>
+        <c:axId val="-2139355248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2119976752"/>
+        <c:axId val="-2139380624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,12 +1129,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121301072"/>
+        <c:crossAx val="-2139355248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2121301072"/>
+        <c:axId val="-2139355248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,7 +1191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119976752"/>
+        <c:crossAx val="-2139380624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/prcpp-week06/graphs/TestStripeMap626.xlsx
+++ b/prcpp-week06/graphs/TestStripeMap626.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1920" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="3960" yWindow="1920" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -246,100 +246,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>951326.1</c:v>
+                  <c:v>937351.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2113381E6</c:v>
+                  <c:v>1.2517564E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3677288E6</c:v>
+                  <c:v>1.390497E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4079243E6</c:v>
+                  <c:v>1.3882028E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4330098E6</c:v>
+                  <c:v>1.4378116E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4695518E6</c:v>
+                  <c:v>1.4578355E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4480687E6</c:v>
+                  <c:v>1.4561788E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.476046E6</c:v>
+                  <c:v>1.4704716E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4891862E6</c:v>
+                  <c:v>1.4791624E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5063615E6</c:v>
+                  <c:v>1.4875307E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4978224E6</c:v>
+                  <c:v>1.4843343E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5040933E6</c:v>
+                  <c:v>1.5039659E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.518224E6</c:v>
+                  <c:v>1.5144249E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5235807E6</c:v>
+                  <c:v>1.5329732E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5250359E6</c:v>
+                  <c:v>1.5123294E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5584517E6</c:v>
+                  <c:v>1.5270945E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5523802E6</c:v>
+                  <c:v>1.5602587E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5480782E6</c:v>
+                  <c:v>1.5668488E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5528777E6</c:v>
+                  <c:v>1.5700438E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5644659E6</c:v>
+                  <c:v>1.5713237E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.587125E6</c:v>
+                  <c:v>1.5924253E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.582993E6</c:v>
+                  <c:v>1.5851634E6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.6180305E6</c:v>
+                  <c:v>1.5863745E6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.6248966E6</c:v>
+                  <c:v>1.63068E6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.62662E6</c:v>
+                  <c:v>1.6343348E6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6188591E6</c:v>
+                  <c:v>1.6402692E6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6475047E6</c:v>
+                  <c:v>1.6503148E6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.629498E6</c:v>
+                  <c:v>1.6437793E6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6557856E6</c:v>
+                  <c:v>1.6584347E6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6790907E6</c:v>
+                  <c:v>1.6814672E6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6750998E6</c:v>
+                  <c:v>1.6737867E6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6876984E6</c:v>
+                  <c:v>1.6852834E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,100 +484,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>979795.6</c:v>
+                  <c:v>985501.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>484322.9</c:v>
+                  <c:v>487188.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>353535.7</c:v>
+                  <c:v>355728.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>294648.5</c:v>
+                  <c:v>286308.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256239.2</c:v>
+                  <c:v>255639.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>237804.4</c:v>
+                  <c:v>238863.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>230701.6</c:v>
+                  <c:v>224150.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>214852.2</c:v>
+                  <c:v>213492.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>234230.7</c:v>
+                  <c:v>242460.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>248701.5</c:v>
+                  <c:v>258680.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>262830.7</c:v>
+                  <c:v>275186.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>293181.5</c:v>
+                  <c:v>283597.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>298554.6</c:v>
+                  <c:v>297872.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>308090.9</c:v>
+                  <c:v>301651.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>309907.7</c:v>
+                  <c:v>311347.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>320907.2</c:v>
+                  <c:v>319589.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>330043.2</c:v>
+                  <c:v>927463.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>336295.1</c:v>
+                  <c:v>332210.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>345152.0</c:v>
+                  <c:v>350393.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>349505.4</c:v>
+                  <c:v>352309.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>356579.0</c:v>
+                  <c:v>356869.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>363183.8</c:v>
+                  <c:v>364619.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>379396.6</c:v>
+                  <c:v>374900.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>369412.6</c:v>
+                  <c:v>380669.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>384755.2</c:v>
+                  <c:v>414941.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>387355.4</c:v>
+                  <c:v>407276.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>406492.7</c:v>
+                  <c:v>414399.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>411030.6</c:v>
+                  <c:v>421067.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>416362.8</c:v>
+                  <c:v>414230.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>416003.1</c:v>
+                  <c:v>423544.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>415301.7</c:v>
+                  <c:v>425135.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>420146.2</c:v>
+                  <c:v>444226.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,100 +722,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>975772.4</c:v>
+                  <c:v>987626.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500241.8</c:v>
+                  <c:v>500876.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>347778.8</c:v>
+                  <c:v>347088.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>274053.0</c:v>
+                  <c:v>273764.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>233727.6</c:v>
+                  <c:v>235469.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199930.4</c:v>
+                  <c:v>201677.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181615.6</c:v>
+                  <c:v>181241.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>166554.5</c:v>
+                  <c:v>166125.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>230280.6</c:v>
+                  <c:v>194246.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>227935.8</c:v>
+                  <c:v>188900.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>222844.6</c:v>
+                  <c:v>187878.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>191702.3</c:v>
+                  <c:v>185231.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>188948.6</c:v>
+                  <c:v>191838.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>191476.5</c:v>
+                  <c:v>189627.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>190329.1</c:v>
+                  <c:v>190298.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>192153.2</c:v>
+                  <c:v>190274.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>194452.5</c:v>
+                  <c:v>198808.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>193770.6</c:v>
+                  <c:v>196774.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>196180.7</c:v>
+                  <c:v>195499.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>196774.2</c:v>
+                  <c:v>197809.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>198551.6</c:v>
+                  <c:v>197998.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>199788.1</c:v>
+                  <c:v>199063.1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>200962.8</c:v>
+                  <c:v>201227.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>203067.2</c:v>
+                  <c:v>203764.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>207246.4</c:v>
+                  <c:v>204099.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>208489.0</c:v>
+                  <c:v>207493.9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>210750.5</c:v>
+                  <c:v>210016.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>211851.1</c:v>
+                  <c:v>209914.8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>211250.3</c:v>
+                  <c:v>213092.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>212546.4</c:v>
+                  <c:v>215326.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>217308.6</c:v>
+                  <c:v>216412.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>218840.2</c:v>
+                  <c:v>217806.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,100 +960,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>927684.6</c:v>
+                  <c:v>942601.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>508563.8</c:v>
+                  <c:v>512456.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>358668.7</c:v>
+                  <c:v>361480.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>281793.2</c:v>
+                  <c:v>277390.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>235540.9</c:v>
+                  <c:v>233721.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>203307.8</c:v>
+                  <c:v>203839.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179627.6</c:v>
+                  <c:v>179611.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>165581.5</c:v>
+                  <c:v>166394.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>234332.6</c:v>
+                  <c:v>198994.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>229370.8</c:v>
+                  <c:v>195271.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>220026.1</c:v>
+                  <c:v>205135.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>215854.6</c:v>
+                  <c:v>205965.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>206953.3</c:v>
+                  <c:v>200674.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>192937.4</c:v>
+                  <c:v>196595.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>194694.9</c:v>
+                  <c:v>203659.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>197808.2</c:v>
+                  <c:v>202917.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>220651.9</c:v>
+                  <c:v>217964.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>225077.2</c:v>
+                  <c:v>214703.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>222939.0</c:v>
+                  <c:v>216146.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>219757.6</c:v>
+                  <c:v>223948.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212374.5</c:v>
+                  <c:v>216769.9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>218476.8</c:v>
+                  <c:v>216059.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>210696.7</c:v>
+                  <c:v>219041.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>218032.1</c:v>
+                  <c:v>237661.1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>233240.3</c:v>
+                  <c:v>239298.3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>234539.1</c:v>
+                  <c:v>227242.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>230443.1</c:v>
+                  <c:v>233601.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>227209.5</c:v>
+                  <c:v>244178.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>227947.7</c:v>
+                  <c:v>240013.1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>230375.4</c:v>
+                  <c:v>227463.3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>224442.6</c:v>
+                  <c:v>233121.2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>226711.9</c:v>
+                  <c:v>236431.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,11 +1068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2139380624"/>
-        <c:axId val="-2139355248"/>
+        <c:axId val="-2088057888"/>
+        <c:axId val="-2084892848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2139380624"/>
+        <c:axId val="-2088057888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,12 +1129,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139355248"/>
+        <c:crossAx val="-2084892848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2139355248"/>
+        <c:axId val="-2084892848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,7 +1191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139380624"/>
+        <c:crossAx val="-2088057888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1827,7 +1827,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="140" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2126,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2152,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="J1">
-        <v>951326.1</v>
+        <v>937351.4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2169,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>979795.6</v>
+        <v>985501.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2178,22 +2178,22 @@
       </c>
       <c r="B3">
         <f ca="1">INDIRECT("J" &amp; $A3*4-(4-B$1))</f>
-        <v>951326.1</v>
+        <v>937351.4</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E3" ca="1" si="0">INDIRECT("J" &amp; $A3*4-(4-C$1))</f>
-        <v>979795.6</v>
+        <v>985501.6</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>975772.4</v>
+        <v>987626.6</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>927684.6</v>
+        <v>942601.5</v>
       </c>
       <c r="J3">
-        <v>975772.4</v>
+        <v>987626.6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2202,22 +2202,22 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:E34" ca="1" si="1">INDIRECT("J" &amp; $A4*4-(4-B$1))</f>
-        <v>1211338.1000000001</v>
+        <v>1251756.3999999999</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>484322.9</v>
+        <v>487188.5</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>500241.8</v>
+        <v>500876.3</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>508563.8</v>
+        <v>512456.9</v>
       </c>
       <c r="J4">
-        <v>927684.6</v>
+        <v>942601.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2226,22 +2226,22 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>1367728.8</v>
+        <v>1390497</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>353535.7</v>
+        <v>355728.1</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>347778.8</v>
+        <v>347088</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>358668.7</v>
+        <v>361480.7</v>
       </c>
       <c r="J5">
-        <v>1211338.1000000001</v>
+        <v>1251756.3999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2250,22 +2250,22 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>1407924.3</v>
+        <v>1388202.8</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>294648.5</v>
+        <v>286308.5</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>274053</v>
+        <v>273764.40000000002</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>281793.2</v>
+        <v>277390.5</v>
       </c>
       <c r="J6">
-        <v>484322.9</v>
+        <v>487188.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2274,22 +2274,22 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>1433009.8</v>
+        <v>1437811.6</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>256239.2</v>
+        <v>255639.6</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>233727.6</v>
+        <v>235469</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>235540.9</v>
+        <v>233721.7</v>
       </c>
       <c r="J7">
-        <v>500241.8</v>
+        <v>500876.3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2298,22 +2298,22 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>1469551.8</v>
+        <v>1457835.5</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>237804.4</v>
+        <v>238863.7</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>199930.4</v>
+        <v>201677.1</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>203307.8</v>
+        <v>203839.5</v>
       </c>
       <c r="J8">
-        <v>508563.8</v>
+        <v>512456.9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2322,22 +2322,22 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>1448068.7</v>
+        <v>1456178.8</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>230701.6</v>
+        <v>224150.7</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>181615.6</v>
+        <v>181241.5</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>179627.6</v>
+        <v>179611.6</v>
       </c>
       <c r="J9">
-        <v>1367728.8</v>
+        <v>1390497</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2346,22 +2346,22 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>1476046</v>
+        <v>1470471.6</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>214852.2</v>
+        <v>213492.3</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>166554.5</v>
+        <v>166125.79999999999</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>165581.5</v>
+        <v>166394.79999999999</v>
       </c>
       <c r="J10">
-        <v>353535.7</v>
+        <v>355728.1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2370,22 +2370,22 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>1489186.2</v>
+        <v>1479162.4</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>234230.7</v>
+        <v>242460.5</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>230280.6</v>
+        <v>194246.3</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>234332.6</v>
+        <v>198994.5</v>
       </c>
       <c r="J11">
-        <v>347778.8</v>
+        <v>347088</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2394,22 +2394,22 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>1506361.5</v>
+        <v>1487530.7</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>248701.5</v>
+        <v>258680</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>227935.8</v>
+        <v>188900.6</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>229370.8</v>
+        <v>195271.8</v>
       </c>
       <c r="J12">
-        <v>358668.7</v>
+        <v>361480.7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2418,22 +2418,22 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>1497822.4</v>
+        <v>1484334.3</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>262830.7</v>
+        <v>275186</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>222844.6</v>
+        <v>187878.2</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>220026.1</v>
+        <v>205135.6</v>
       </c>
       <c r="J13">
-        <v>1407924.3</v>
+        <v>1388202.8</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2442,22 +2442,22 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>1504093.3</v>
+        <v>1503965.9</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>293181.5</v>
+        <v>283597</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>191702.3</v>
+        <v>185231.4</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>215854.6</v>
+        <v>205965</v>
       </c>
       <c r="J14">
-        <v>294648.5</v>
+        <v>286308.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2466,22 +2466,22 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>1518224</v>
+        <v>1514424.9</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>298554.59999999998</v>
+        <v>297872.5</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>188948.6</v>
+        <v>191838.4</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>206953.3</v>
+        <v>200674.6</v>
       </c>
       <c r="J15">
-        <v>274053</v>
+        <v>273764.40000000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2490,22 +2490,22 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>1523580.7</v>
+        <v>1532973.2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>308090.90000000002</v>
+        <v>301651.3</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>191476.5</v>
+        <v>189627.5</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>192937.4</v>
+        <v>196595.8</v>
       </c>
       <c r="J16">
-        <v>281793.2</v>
+        <v>277390.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2514,22 +2514,22 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>1525035.9</v>
+        <v>1512329.4</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>309907.7</v>
+        <v>311347.5</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>190329.1</v>
+        <v>190298.3</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>194694.9</v>
+        <v>203659.4</v>
       </c>
       <c r="J17">
-        <v>1433009.8</v>
+        <v>1437811.6</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2538,22 +2538,22 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>1558451.7</v>
+        <v>1527094.5</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>320907.2</v>
+        <v>319589.90000000002</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>192153.2</v>
+        <v>190274.7</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>197808.2</v>
+        <v>202917.3</v>
       </c>
       <c r="J18">
-        <v>256239.2</v>
+        <v>255639.6</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2562,22 +2562,22 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>1552380.2</v>
+        <v>1560258.7</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>330043.2</v>
+        <v>927463.2</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>194452.5</v>
+        <v>198808.4</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>220651.9</v>
+        <v>217964.79999999999</v>
       </c>
       <c r="J19">
-        <v>233727.6</v>
+        <v>235469</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2586,22 +2586,22 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>1548078.2</v>
+        <v>1566848.8</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>336295.1</v>
+        <v>332210.8</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>193770.6</v>
+        <v>196774.3</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>225077.2</v>
+        <v>214703.2</v>
       </c>
       <c r="J20">
-        <v>235540.9</v>
+        <v>233721.7</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2610,22 +2610,22 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>1552877.7</v>
+        <v>1570043.8</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>345152</v>
+        <v>350393.59999999998</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>196180.7</v>
+        <v>195499.3</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>222939</v>
+        <v>216146.8</v>
       </c>
       <c r="J21">
-        <v>1469551.8</v>
+        <v>1457835.5</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2634,22 +2634,22 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>1564465.9</v>
+        <v>1571323.7</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>349505.4</v>
+        <v>352309.4</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>196774.2</v>
+        <v>197809.3</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>219757.6</v>
+        <v>223948.4</v>
       </c>
       <c r="J22">
-        <v>237804.4</v>
+        <v>238863.7</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2658,22 +2658,22 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>1587125</v>
+        <v>1592425.3</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>356579</v>
+        <v>356869.8</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>198551.6</v>
+        <v>197998.7</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>212374.5</v>
+        <v>216769.9</v>
       </c>
       <c r="J23">
-        <v>199930.4</v>
+        <v>201677.1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2682,22 +2682,22 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>1582993</v>
+        <v>1585163.4</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>363183.8</v>
+        <v>364619</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>199788.1</v>
+        <v>199063.1</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>218476.79999999999</v>
+        <v>216059</v>
       </c>
       <c r="J24">
-        <v>203307.8</v>
+        <v>203839.5</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>1618030.5</v>
+        <v>1586374.5</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>379396.6</v>
+        <v>374900.9</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>200962.8</v>
+        <v>201227.6</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>210696.7</v>
+        <v>219041</v>
       </c>
       <c r="J25">
-        <v>1448068.7</v>
+        <v>1456178.8</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2730,22 +2730,22 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>1624896.6</v>
+        <v>1630680</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>369412.6</v>
+        <v>380669.3</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>203067.2</v>
+        <v>203764.3</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>218032.1</v>
+        <v>237661.1</v>
       </c>
       <c r="J26">
-        <v>230701.6</v>
+        <v>224150.7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2754,22 +2754,22 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>1626620</v>
+        <v>1634334.8</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>384755.20000000001</v>
+        <v>414941.5</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>207246.4</v>
+        <v>204099.5</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>233240.3</v>
+        <v>239298.3</v>
       </c>
       <c r="J27">
-        <v>181615.6</v>
+        <v>181241.5</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2778,22 +2778,22 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>1618859.1</v>
+        <v>1640269.2</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>387355.4</v>
+        <v>407276</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>208489</v>
+        <v>207493.9</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>234539.1</v>
+        <v>227242.5</v>
       </c>
       <c r="J28">
-        <v>179627.6</v>
+        <v>179611.6</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2802,22 +2802,22 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>1647504.7</v>
+        <v>1650314.8</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>406492.7</v>
+        <v>414399.6</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>210750.5</v>
+        <v>210016.7</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>230443.1</v>
+        <v>233601</v>
       </c>
       <c r="J29">
-        <v>1476046</v>
+        <v>1470471.6</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2826,22 +2826,22 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>1629498</v>
+        <v>1643779.3</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>411030.6</v>
+        <v>421067.5</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>211851.1</v>
+        <v>209914.8</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>227209.5</v>
+        <v>244178.1</v>
       </c>
       <c r="J30">
-        <v>214852.2</v>
+        <v>213492.3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2850,22 +2850,22 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>1655785.6</v>
+        <v>1658434.7</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>416362.8</v>
+        <v>414230.4</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>211250.3</v>
+        <v>213092.9</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>227947.7</v>
+        <v>240013.1</v>
       </c>
       <c r="J31">
-        <v>166554.5</v>
+        <v>166125.79999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2874,22 +2874,22 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>1679090.7</v>
+        <v>1681467.2</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>416003.1</v>
+        <v>423544.6</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>212546.4</v>
+        <v>215326.6</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>230375.4</v>
+        <v>227463.3</v>
       </c>
       <c r="J32">
-        <v>165581.5</v>
+        <v>166394.79999999999</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2898,22 +2898,22 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>1675099.8</v>
+        <v>1673786.7</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>415301.7</v>
+        <v>425135.6</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>217308.6</v>
+        <v>216412</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>224442.6</v>
+        <v>233121.2</v>
       </c>
       <c r="J33">
-        <v>1489186.2</v>
+        <v>1479162.4</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2922,492 +2922,492 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>1687698.4</v>
+        <v>1685283.4</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>420146.2</v>
+        <v>444226.2</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>218840.2</v>
+        <v>217806.3</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>226711.9</v>
+        <v>236431.8</v>
       </c>
       <c r="J34">
-        <v>234230.7</v>
+        <v>242460.5</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J35">
-        <v>230280.6</v>
+        <v>194246.3</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J36">
-        <v>234332.6</v>
+        <v>198994.5</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J37">
-        <v>1506361.5</v>
+        <v>1487530.7</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J38">
-        <v>248701.5</v>
+        <v>258680</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J39">
-        <v>227935.8</v>
+        <v>188900.6</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J40">
-        <v>229370.8</v>
+        <v>195271.8</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J41">
-        <v>1497822.4</v>
+        <v>1484334.3</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J42">
-        <v>262830.7</v>
+        <v>275186</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J43">
-        <v>222844.6</v>
+        <v>187878.2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J44">
-        <v>220026.1</v>
+        <v>205135.6</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J45">
-        <v>1504093.3</v>
+        <v>1503965.9</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J46">
-        <v>293181.5</v>
+        <v>283597</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J47">
-        <v>191702.3</v>
+        <v>185231.4</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J48">
-        <v>215854.6</v>
+        <v>205965</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49">
-        <v>1518224</v>
+        <v>1514424.9</v>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50">
-        <v>298554.59999999998</v>
+        <v>297872.5</v>
       </c>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J51">
-        <v>188948.6</v>
+        <v>191838.4</v>
       </c>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52">
-        <v>206953.3</v>
+        <v>200674.6</v>
       </c>
     </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53">
-        <v>1523580.7</v>
+        <v>1532973.2</v>
       </c>
     </row>
     <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54">
-        <v>308090.90000000002</v>
+        <v>301651.3</v>
       </c>
     </row>
     <row r="55" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J55">
-        <v>191476.5</v>
+        <v>189627.5</v>
       </c>
     </row>
     <row r="56" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J56">
-        <v>192937.4</v>
+        <v>196595.8</v>
       </c>
     </row>
     <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57">
-        <v>1525035.9</v>
+        <v>1512329.4</v>
       </c>
     </row>
     <row r="58" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J58">
-        <v>309907.7</v>
+        <v>311347.5</v>
       </c>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59">
-        <v>190329.1</v>
+        <v>190298.3</v>
       </c>
     </row>
     <row r="60" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J60">
-        <v>194694.9</v>
+        <v>203659.4</v>
       </c>
     </row>
     <row r="61" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J61">
-        <v>1558451.7</v>
+        <v>1527094.5</v>
       </c>
     </row>
     <row r="62" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J62">
-        <v>320907.2</v>
+        <v>319589.90000000002</v>
       </c>
     </row>
     <row r="63" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J63">
-        <v>192153.2</v>
+        <v>190274.7</v>
       </c>
     </row>
     <row r="64" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J64">
-        <v>197808.2</v>
+        <v>202917.3</v>
       </c>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65">
-        <v>1552380.2</v>
+        <v>1560258.7</v>
       </c>
     </row>
     <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66">
-        <v>330043.2</v>
+        <v>927463.2</v>
       </c>
     </row>
     <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67">
-        <v>194452.5</v>
+        <v>198808.4</v>
       </c>
     </row>
     <row r="68" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J68">
-        <v>220651.9</v>
+        <v>217964.79999999999</v>
       </c>
     </row>
     <row r="69" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J69">
-        <v>1548078.2</v>
+        <v>1566848.8</v>
       </c>
     </row>
     <row r="70" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J70">
-        <v>336295.1</v>
+        <v>332210.8</v>
       </c>
     </row>
     <row r="71" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J71">
-        <v>193770.6</v>
+        <v>196774.3</v>
       </c>
     </row>
     <row r="72" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J72">
-        <v>225077.2</v>
+        <v>214703.2</v>
       </c>
     </row>
     <row r="73" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J73">
-        <v>1552877.7</v>
+        <v>1570043.8</v>
       </c>
     </row>
     <row r="74" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J74">
-        <v>345152</v>
+        <v>350393.59999999998</v>
       </c>
     </row>
     <row r="75" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J75">
-        <v>196180.7</v>
+        <v>195499.3</v>
       </c>
     </row>
     <row r="76" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J76">
-        <v>222939</v>
+        <v>216146.8</v>
       </c>
     </row>
     <row r="77" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J77">
-        <v>1564465.9</v>
+        <v>1571323.7</v>
       </c>
     </row>
     <row r="78" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J78">
-        <v>349505.4</v>
+        <v>352309.4</v>
       </c>
     </row>
     <row r="79" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J79">
-        <v>196774.2</v>
+        <v>197809.3</v>
       </c>
     </row>
     <row r="80" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J80">
-        <v>219757.6</v>
+        <v>223948.4</v>
       </c>
     </row>
     <row r="81" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J81">
-        <v>1587125</v>
+        <v>1592425.3</v>
       </c>
     </row>
     <row r="82" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J82">
-        <v>356579</v>
+        <v>356869.8</v>
       </c>
     </row>
     <row r="83" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J83">
-        <v>198551.6</v>
+        <v>197998.7</v>
       </c>
     </row>
     <row r="84" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J84">
-        <v>212374.5</v>
+        <v>216769.9</v>
       </c>
     </row>
     <row r="85" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J85">
-        <v>1582993</v>
+        <v>1585163.4</v>
       </c>
     </row>
     <row r="86" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J86">
-        <v>363183.8</v>
+        <v>364619</v>
       </c>
     </row>
     <row r="87" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J87">
-        <v>199788.1</v>
+        <v>199063.1</v>
       </c>
     </row>
     <row r="88" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J88">
-        <v>218476.79999999999</v>
+        <v>216059</v>
       </c>
     </row>
     <row r="89" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J89">
-        <v>1618030.5</v>
+        <v>1586374.5</v>
       </c>
     </row>
     <row r="90" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J90">
-        <v>379396.6</v>
+        <v>374900.9</v>
       </c>
     </row>
     <row r="91" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J91">
-        <v>200962.8</v>
+        <v>201227.6</v>
       </c>
     </row>
     <row r="92" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J92">
-        <v>210696.7</v>
+        <v>219041</v>
       </c>
     </row>
     <row r="93" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J93">
-        <v>1624896.6</v>
+        <v>1630680</v>
       </c>
     </row>
     <row r="94" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J94">
-        <v>369412.6</v>
+        <v>380669.3</v>
       </c>
     </row>
     <row r="95" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J95">
-        <v>203067.2</v>
+        <v>203764.3</v>
       </c>
     </row>
     <row r="96" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J96">
-        <v>218032.1</v>
+        <v>237661.1</v>
       </c>
     </row>
     <row r="97" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J97">
-        <v>1626620</v>
+        <v>1634334.8</v>
       </c>
     </row>
     <row r="98" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J98">
-        <v>384755.20000000001</v>
+        <v>414941.5</v>
       </c>
     </row>
     <row r="99" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J99">
-        <v>207246.4</v>
+        <v>204099.5</v>
       </c>
     </row>
     <row r="100" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J100">
-        <v>233240.3</v>
+        <v>239298.3</v>
       </c>
     </row>
     <row r="101" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J101">
-        <v>1618859.1</v>
+        <v>1640269.2</v>
       </c>
     </row>
     <row r="102" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J102">
-        <v>387355.4</v>
+        <v>407276</v>
       </c>
     </row>
     <row r="103" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J103">
-        <v>208489</v>
+        <v>207493.9</v>
       </c>
     </row>
     <row r="104" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J104">
-        <v>234539.1</v>
+        <v>227242.5</v>
       </c>
     </row>
     <row r="105" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J105">
-        <v>1647504.7</v>
+        <v>1650314.8</v>
       </c>
     </row>
     <row r="106" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J106">
-        <v>406492.7</v>
+        <v>414399.6</v>
       </c>
     </row>
     <row r="107" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J107">
-        <v>210750.5</v>
+        <v>210016.7</v>
       </c>
     </row>
     <row r="108" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J108">
-        <v>230443.1</v>
+        <v>233601</v>
       </c>
     </row>
     <row r="109" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J109">
-        <v>1629498</v>
+        <v>1643779.3</v>
       </c>
     </row>
     <row r="110" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J110">
-        <v>411030.6</v>
+        <v>421067.5</v>
       </c>
     </row>
     <row r="111" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J111">
-        <v>211851.1</v>
+        <v>209914.8</v>
       </c>
     </row>
     <row r="112" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J112">
-        <v>227209.5</v>
+        <v>244178.1</v>
       </c>
     </row>
     <row r="113" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J113">
-        <v>1655785.6</v>
+        <v>1658434.7</v>
       </c>
     </row>
     <row r="114" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J114">
-        <v>416362.8</v>
+        <v>414230.4</v>
       </c>
     </row>
     <row r="115" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J115">
-        <v>211250.3</v>
+        <v>213092.9</v>
       </c>
     </row>
     <row r="116" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J116">
-        <v>227947.7</v>
+        <v>240013.1</v>
       </c>
     </row>
     <row r="117" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J117">
-        <v>1679090.7</v>
+        <v>1681467.2</v>
       </c>
     </row>
     <row r="118" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J118">
-        <v>416003.1</v>
+        <v>423544.6</v>
       </c>
     </row>
     <row r="119" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J119">
-        <v>212546.4</v>
+        <v>215326.6</v>
       </c>
     </row>
     <row r="120" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J120">
-        <v>230375.4</v>
+        <v>227463.3</v>
       </c>
     </row>
     <row r="121" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J121">
-        <v>1675099.8</v>
+        <v>1673786.7</v>
       </c>
     </row>
     <row r="122" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J122">
-        <v>415301.7</v>
+        <v>425135.6</v>
       </c>
     </row>
     <row r="123" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J123">
-        <v>217308.6</v>
+        <v>216412</v>
       </c>
     </row>
     <row r="124" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J124">
-        <v>224442.6</v>
+        <v>233121.2</v>
       </c>
     </row>
     <row r="125" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J125">
-        <v>1687698.4</v>
+        <v>1685283.4</v>
       </c>
     </row>
     <row r="126" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J126">
-        <v>420146.2</v>
+        <v>444226.2</v>
       </c>
     </row>
     <row r="127" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J127">
-        <v>218840.2</v>
+        <v>217806.3</v>
       </c>
     </row>
     <row r="128" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J128">
-        <v>226711.9</v>
+        <v>236431.8</v>
       </c>
     </row>
   </sheetData>
